--- a/available_mods_by_versions.xlsx
+++ b/available_mods_by_versions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\Desktop\informatique\modpack\ts-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14B90FBE-CC06-48B9-B271-E469BA68C7B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B407EBE-8430-4BE5-BD33-758CDE6A0843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="5520" windowWidth="28800" windowHeight="15435" xr2:uid="{B9BFA26B-9F81-4E39-B066-A75FB54763CC}"/>
+    <workbookView xWindow="-14400" yWindow="5400" windowWidth="14400" windowHeight="15600" xr2:uid="{B9BFA26B-9F81-4E39-B066-A75FB54763CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="61">
   <si>
     <t>1.20.1</t>
   </si>
@@ -195,13 +195,37 @@
   </si>
   <si>
     <t>Mods                                           \                                            Minecraft versions</t>
+  </si>
+  <si>
+    <t>bclib</t>
+  </si>
+  <si>
+    <t>better ends</t>
+  </si>
+  <si>
+    <t>ender chests</t>
+  </si>
+  <si>
+    <t>frameworks</t>
+  </si>
+  <si>
+    <t>refurbished furnitures</t>
+  </si>
+  <si>
+    <t>shetifiancore</t>
+  </si>
+  <si>
+    <t>signed paintings</t>
+  </si>
+  <si>
+    <t>urlmusicdiscs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,13 +239,78 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -236,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -247,6 +336,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -581,11 +687,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B151FC50-859D-4259-93B8-30AD0A3FDC6E}">
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,7 +732,7 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -653,7 +759,7 @@
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -676,7 +782,7 @@
       <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -699,7 +805,7 @@
       <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -722,7 +828,7 @@
       <c r="Q5" s="3"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -755,7 +861,7 @@
       <c r="Q6" s="3"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -785,67 +891,55 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+    </row>
+    <row r="9" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>4</v>
@@ -867,18 +961,30 @@
       <c r="Q10" s="3"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
+      <c r="A11" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -890,21 +996,15 @@
       <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
+      <c r="A12" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -919,30 +1019,18 @@
       <c r="Q12" s="3"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>16</v>
+      <c r="A13" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -954,8 +1042,8 @@
       <c r="Q13" s="3"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>17</v>
+      <c r="A14" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>4</v>
@@ -983,18 +1071,30 @@
       <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>18</v>
+      <c r="A15" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -1006,8 +1106,8 @@
       <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>47</v>
+      <c r="A16" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>4</v>
@@ -1021,15 +1121,9 @@
       <c r="E16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -1041,8 +1135,8 @@
       <c r="Q16" s="3"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>46</v>
+      <c r="A17" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>4</v>
@@ -1063,38 +1157,32 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
+    <row r="18" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>4</v>
@@ -1128,19 +1216,15 @@
       <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>21</v>
+      <c r="A20" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1154,32 +1238,32 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
+    <row r="21" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>23</v>
+      <c r="A22" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>4</v>
@@ -1193,12 +1277,8 @@
       <c r="E22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -1211,8 +1291,8 @@
       <c r="Q22" s="3"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>24</v>
+      <c r="A23" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>4</v>
@@ -1246,8 +1326,8 @@
       <c r="Q23" s="3"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>25</v>
+      <c r="A24" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>4</v>
@@ -1255,18 +1335,12 @@
       <c r="C24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -1279,17 +1353,15 @@
       <c r="Q24" s="3"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>26</v>
+      <c r="A25" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -1304,17 +1376,27 @@
       <c r="Q25" s="3"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>27</v>
+      <c r="A26" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
@@ -1327,22 +1409,30 @@
       <c r="Q26" s="3"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>28</v>
+      <c r="A27" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="3"/>
+      <c r="F27" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="G27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H27" s="3"/>
+      <c r="H27" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -1354,8 +1444,8 @@
       <c r="Q27" s="3"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>29</v>
+      <c r="A28" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>4</v>
@@ -1363,17 +1453,19 @@
       <c r="C28" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E28" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F28" s="3"/>
+      <c r="F28" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="G28" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -1385,15 +1477,17 @@
       <c r="Q28" s="3"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>30</v>
+      <c r="A29" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
+      <c r="E29" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -1408,17 +1502,15 @@
       <c r="Q29" s="3"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>31</v>
+      <c r="A30" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -1433,17 +1525,21 @@
       <c r="Q30" s="3"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>32</v>
+      <c r="A31" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+      <c r="E31" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
+      <c r="G31" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
@@ -1456,18 +1552,26 @@
       <c r="Q31" s="3"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>51</v>
+      <c r="A32" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
+      <c r="E32" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
+      <c r="G32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
@@ -1479,8 +1583,8 @@
       <c r="Q32" s="3"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>33</v>
+      <c r="A33" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>4</v>
@@ -1490,9 +1594,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
-      <c r="H33" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -1504,25 +1606,19 @@
       <c r="Q33" s="3"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>34</v>
+      <c r="A34" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
@@ -1535,30 +1631,18 @@
       <c r="Q34" s="3"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>35</v>
+      <c r="A35" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -1570,12 +1654,16 @@
       <c r="Q35" s="3"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>36</v>
+      <c r="A36" s="17" t="s">
+        <v>51</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -1588,32 +1676,32 @@
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
+    <row r="37" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>38</v>
+      <c r="A38" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>4</v>
@@ -1623,7 +1711,9 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
+      <c r="H38" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -1635,8 +1725,8 @@
       <c r="Q38" s="3"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>39</v>
+      <c r="A39" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>4</v>
@@ -1648,8 +1738,12 @@
       <c r="E39" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
+      <c r="F39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
@@ -1661,73 +1755,77 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
+    <row r="40" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+    </row>
+    <row r="41" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>42</v>
+      <c r="A42" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
+      <c r="C42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
+      <c r="F42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
@@ -1739,26 +1837,14 @@
       <c r="Q42" s="3"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>43</v>
+      <c r="A43" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
@@ -1770,25 +1856,17 @@
       <c r="Q43" s="3"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>44</v>
+      <c r="A44" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="C44" s="3"/>
       <c r="D44" s="3"/>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
@@ -1801,26 +1879,18 @@
       <c r="Q44" s="3"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>45</v>
+      <c r="A45" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="C45" s="3"/>
       <c r="D45" s="3"/>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="E45" s="3"/>
       <c r="F45" s="3"/>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
@@ -1831,9 +1901,229 @@
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
     </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A45">
-    <sortCondition ref="A2:A45"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A53">
+    <sortCondition ref="A2:A53"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
